--- a/Document/技能效果列表.xlsx
+++ b/Document/技能效果列表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="257">
   <si>
     <t>ID</t>
   </si>
@@ -781,6 +781,21 @@
   </si>
   <si>
     <t>"&gt;&lt;/SpellEffect&gt;</t>
+  </si>
+  <si>
+    <t>SummonPool_Add</t>
+  </si>
+  <si>
+    <t>SummonPool_Fill</t>
+  </si>
+  <si>
+    <t>SummonPool_Refresh</t>
+  </si>
+  <si>
+    <t>CardPool_Add</t>
+  </si>
+  <si>
+    <t>CardPool_Remove</t>
   </si>
 </sst>
 </file>
@@ -2229,12 +2244,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4264,7 +4281,7 @@
         <v>249</v>
       </c>
       <c r="D71" t="s">
-        <v>71</v>
+        <v>252</v>
       </c>
       <c r="E71" t="s">
         <v>248</v>
@@ -4293,7 +4310,7 @@
         <v>249</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="E72" t="s">
         <v>248</v>
@@ -4322,7 +4339,7 @@
         <v>249</v>
       </c>
       <c r="D73" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="E73" t="s">
         <v>248</v>
@@ -4351,7 +4368,7 @@
         <v>249</v>
       </c>
       <c r="D74" t="s">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="E74" t="s">
         <v>248</v>
@@ -4380,7 +4397,7 @@
         <v>249</v>
       </c>
       <c r="D75" t="s">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="E75" t="s">
         <v>248</v>
